--- a/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
+++ b/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\tugas individu\Lampiran Tugas 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E1BE2-51B4-46BB-B40E-AD86D166135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D5E90-0F33-44BC-A67F-5E06C07333FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Prediksi LSTM-RNN" sheetId="2" r:id="rId1"/>
@@ -395,12 +395,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,23 +423,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,17 +447,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,31 +926,33 @@
   <dimension ref="A1:S172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="19" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="43"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="3"/>
@@ -958,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -972,7 +974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -986,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -997,7 +999,7 @@
       <c r="F6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,85 +1042,85 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="42" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="42" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="42" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="42" t="s">
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
@@ -1168,11 +1170,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6">
@@ -1195,11 +1197,11 @@
       <c r="R16" s="13"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="6">
         <v>500</v>
       </c>
@@ -1220,11 +1222,11 @@
       <c r="R17" s="13"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="6">
         <v>1000</v>
       </c>
@@ -1245,11 +1247,11 @@
       <c r="R18" s="13"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="6">
         <v>1500</v>
       </c>
@@ -1270,11 +1272,11 @@
       <c r="R19" s="13"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -1295,11 +1297,11 @@
       <c r="R20" s="13"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="10">
@@ -1322,11 +1324,11 @@
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="10">
         <v>500</v>
       </c>
@@ -1347,11 +1349,11 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="10">
         <v>1000</v>
       </c>
@@ -1372,11 +1374,11 @@
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="10">
         <v>1500</v>
       </c>
@@ -1397,11 +1399,11 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="10">
         <v>2000</v>
       </c>
@@ -1422,11 +1424,11 @@
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>11</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="6">
@@ -1449,11 +1451,11 @@
       <c r="R26" s="13"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>12</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="6">
         <v>500</v>
       </c>
@@ -1474,11 +1476,11 @@
       <c r="R27" s="32"/>
       <c r="S27" s="30"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>13</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="6">
         <v>1000</v>
       </c>
@@ -1499,11 +1501,11 @@
       <c r="R28" s="32"/>
       <c r="S28" s="30"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>14</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="6">
         <v>1500</v>
       </c>
@@ -1524,11 +1526,11 @@
       <c r="R29" s="13"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>15</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -1549,11 +1551,11 @@
       <c r="R30" s="13"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>16</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="10">
@@ -1576,11 +1578,11 @@
       <c r="R31" s="17"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>17</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="10">
         <v>500</v>
       </c>
@@ -1601,11 +1603,11 @@
       <c r="R32" s="17"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>18</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="10">
         <v>1000</v>
       </c>
@@ -1626,11 +1628,11 @@
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="10">
         <v>1500</v>
       </c>
@@ -1651,11 +1653,11 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="10">
         <v>2000</v>
       </c>
@@ -1676,11 +1678,11 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>21</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="6">
@@ -1703,11 +1705,11 @@
       <c r="R36" s="13"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>22</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="6">
         <v>500</v>
       </c>
@@ -1728,11 +1730,11 @@
       <c r="R37" s="13"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>23</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="6">
         <v>1000</v>
       </c>
@@ -1753,11 +1755,11 @@
       <c r="R38" s="13"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>24</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="6">
         <v>1500</v>
       </c>
@@ -1778,11 +1780,11 @@
       <c r="R39" s="13"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>25</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="6">
         <v>2000</v>
       </c>
@@ -1803,11 +1805,11 @@
       <c r="R40" s="13"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10">
@@ -1830,11 +1832,11 @@
       <c r="R41" s="17"/>
       <c r="S41" s="20"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="10">
         <v>500</v>
       </c>
@@ -1855,11 +1857,11 @@
       <c r="R42" s="17"/>
       <c r="S42" s="20"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="10">
         <v>1000</v>
       </c>
@@ -1880,11 +1882,11 @@
       <c r="R43" s="17"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="B44" s="49"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="10">
         <v>1500</v>
       </c>
@@ -1905,11 +1907,11 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="10">
         <v>2000</v>
       </c>
@@ -1930,175 +1932,175 @@
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-    </row>
-    <row r="51" spans="1:19" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+    </row>
+    <row r="51" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="41"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="42" t="s">
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="39"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="42" t="s">
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="42" t="s">
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="42" t="s">
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="44"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="36"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="11">
         <v>8</v>
       </c>
@@ -2148,11 +2150,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="6">
@@ -2175,11 +2177,11 @@
       <c r="R55" s="13"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2</v>
       </c>
-      <c r="B56" s="46"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="6">
         <v>500</v>
       </c>
@@ -2200,11 +2202,11 @@
       <c r="R56" s="13"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="46"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="6">
         <v>1000</v>
       </c>
@@ -2225,11 +2227,11 @@
       <c r="R57" s="13"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>4</v>
       </c>
-      <c r="B58" s="46"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="6">
         <v>1500</v>
       </c>
@@ -2250,11 +2252,11 @@
       <c r="R58" s="13"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>5</v>
       </c>
-      <c r="B59" s="47"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="6">
         <v>2000</v>
       </c>
@@ -2275,11 +2277,11 @@
       <c r="R59" s="13"/>
       <c r="S59" s="8"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>6</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="10">
@@ -2302,11 +2304,11 @@
       <c r="R60" s="17"/>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>7</v>
       </c>
-      <c r="B61" s="49"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="10">
         <v>500</v>
       </c>
@@ -2327,11 +2329,11 @@
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>8</v>
       </c>
-      <c r="B62" s="49"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="10">
         <v>1000</v>
       </c>
@@ -2352,11 +2354,11 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>9</v>
       </c>
-      <c r="B63" s="49"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="10">
         <v>1500</v>
       </c>
@@ -2377,11 +2379,11 @@
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>10</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="10">
         <v>2000</v>
       </c>
@@ -2402,11 +2404,11 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>11</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="6">
@@ -2429,11 +2431,11 @@
       <c r="R65" s="13"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>12</v>
       </c>
-      <c r="B66" s="46"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="6">
         <v>500</v>
       </c>
@@ -2454,11 +2456,11 @@
       <c r="R66" s="32"/>
       <c r="S66" s="30"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>13</v>
       </c>
-      <c r="B67" s="46"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="6">
         <v>1000</v>
       </c>
@@ -2479,11 +2481,11 @@
       <c r="R67" s="32"/>
       <c r="S67" s="30"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>14</v>
       </c>
-      <c r="B68" s="46"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="6">
         <v>1500</v>
       </c>
@@ -2504,11 +2506,11 @@
       <c r="R68" s="13"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>15</v>
       </c>
-      <c r="B69" s="47"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="6">
         <v>2000</v>
       </c>
@@ -2529,11 +2531,11 @@
       <c r="R69" s="13"/>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>16</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="10">
@@ -2556,11 +2558,11 @@
       <c r="R70" s="17"/>
       <c r="S70" s="19"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>17</v>
       </c>
-      <c r="B71" s="49"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="10">
         <v>500</v>
       </c>
@@ -2581,11 +2583,11 @@
       <c r="R71" s="17"/>
       <c r="S71" s="19"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>18</v>
       </c>
-      <c r="B72" s="49"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="10">
         <v>1000</v>
       </c>
@@ -2606,11 +2608,11 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>19</v>
       </c>
-      <c r="B73" s="49"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="10">
         <v>1500</v>
       </c>
@@ -2631,11 +2633,11 @@
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>20</v>
       </c>
-      <c r="B74" s="50"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="10">
         <v>2000</v>
       </c>
@@ -2656,11 +2658,11 @@
       <c r="R74" s="17"/>
       <c r="S74" s="18"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>21</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="6">
@@ -2683,11 +2685,11 @@
       <c r="R75" s="13"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>22</v>
       </c>
-      <c r="B76" s="46"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="6">
         <v>500</v>
       </c>
@@ -2708,11 +2710,11 @@
       <c r="R76" s="13"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>23</v>
       </c>
-      <c r="B77" s="46"/>
+      <c r="B77" s="49"/>
       <c r="C77" s="6">
         <v>1000</v>
       </c>
@@ -2733,11 +2735,11 @@
       <c r="R77" s="13"/>
       <c r="S77" s="14"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>24</v>
       </c>
-      <c r="B78" s="46"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="6">
         <v>1500</v>
       </c>
@@ -2758,11 +2760,11 @@
       <c r="R78" s="13"/>
       <c r="S78" s="14"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>25</v>
       </c>
-      <c r="B79" s="47"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="6">
         <v>2000</v>
       </c>
@@ -2783,11 +2785,11 @@
       <c r="R79" s="13"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>26</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="10">
@@ -2810,11 +2812,11 @@
       <c r="R80" s="17"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>27</v>
       </c>
-      <c r="B81" s="49"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="10">
         <v>500</v>
       </c>
@@ -2835,11 +2837,11 @@
       <c r="R81" s="17"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>28</v>
       </c>
-      <c r="B82" s="49"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="10">
         <v>1000</v>
       </c>
@@ -2860,11 +2862,11 @@
       <c r="R82" s="17"/>
       <c r="S82" s="20"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>29</v>
       </c>
-      <c r="B83" s="49"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="10">
         <v>1500</v>
       </c>
@@ -2885,11 +2887,11 @@
       <c r="R83" s="25"/>
       <c r="S83" s="25"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>30</v>
       </c>
-      <c r="B84" s="50"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="10">
         <v>2000</v>
       </c>
@@ -2910,1865 +2912,1863 @@
       <c r="R84" s="25"/>
       <c r="S84" s="25"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34"/>
-      <c r="S94" s="34"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="34"/>
-      <c r="N95" s="34"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="34"/>
-      <c r="O97" s="34"/>
-      <c r="P97" s="34"/>
-      <c r="Q97" s="34"/>
-      <c r="R97" s="34"/>
-      <c r="S97" s="34"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="34"/>
-      <c r="R99" s="34"/>
-      <c r="S99" s="34"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="34"/>
-      <c r="R100" s="34"/>
-      <c r="S100" s="34"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="34"/>
-      <c r="P101" s="34"/>
-      <c r="Q101" s="34"/>
-      <c r="R101" s="34"/>
-      <c r="S101" s="34"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="34"/>
-      <c r="O102" s="34"/>
-      <c r="P102" s="34"/>
-      <c r="Q102" s="34"/>
-      <c r="R102" s="34"/>
-      <c r="S102" s="34"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="34"/>
-      <c r="S103" s="34"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="34"/>
-      <c r="L104" s="34"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="34"/>
-      <c r="O104" s="34"/>
-      <c r="P104" s="34"/>
-      <c r="Q104" s="34"/>
-      <c r="R104" s="34"/>
-      <c r="S104" s="34"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="34"/>
-      <c r="N105" s="34"/>
-      <c r="O105" s="34"/>
-      <c r="P105" s="34"/>
-      <c r="Q105" s="34"/>
-      <c r="R105" s="34"/>
-      <c r="S105" s="34"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
-      <c r="O106" s="34"/>
-      <c r="P106" s="34"/>
-      <c r="Q106" s="34"/>
-      <c r="R106" s="34"/>
-      <c r="S106" s="34"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="34"/>
-      <c r="M107" s="34"/>
-      <c r="N107" s="34"/>
-      <c r="O107" s="34"/>
-      <c r="P107" s="34"/>
-      <c r="Q107" s="34"/>
-      <c r="R107" s="34"/>
-      <c r="S107" s="34"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34"/>
-      <c r="N108" s="34"/>
-      <c r="O108" s="34"/>
-      <c r="P108" s="34"/>
-      <c r="Q108" s="34"/>
-      <c r="R108" s="34"/>
-      <c r="S108" s="34"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="34"/>
-      <c r="L109" s="34"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="34"/>
-      <c r="O109" s="34"/>
-      <c r="P109" s="34"/>
-      <c r="Q109" s="34"/>
-      <c r="R109" s="34"/>
-      <c r="S109" s="34"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="34"/>
-      <c r="L110" s="34"/>
-      <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="34"/>
-      <c r="R110" s="34"/>
-      <c r="S110" s="34"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="34"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="34"/>
-      <c r="L111" s="34"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="34"/>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="34"/>
-      <c r="R111" s="34"/>
-      <c r="S111" s="34"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="34"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="34"/>
-      <c r="L112" s="34"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
-      <c r="Q112" s="34"/>
-      <c r="R112" s="34"/>
-      <c r="S112" s="34"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="34"/>
-      <c r="L113" s="34"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
-      <c r="Q113" s="34"/>
-      <c r="R113" s="34"/>
-      <c r="S113" s="34"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
-      <c r="Q114" s="34"/>
-      <c r="R114" s="34"/>
-      <c r="S114" s="34"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="34"/>
-      <c r="R115" s="34"/>
-      <c r="S115" s="34"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="34"/>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="34"/>
-      <c r="O116" s="34"/>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="34"/>
-      <c r="R116" s="34"/>
-      <c r="S116" s="34"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="34"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="34"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="34"/>
-      <c r="R119" s="34"/>
-      <c r="S119" s="34"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="34"/>
-      <c r="L120" s="34"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
-      <c r="Q120" s="34"/>
-      <c r="R120" s="34"/>
-      <c r="S120" s="34"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="34"/>
-      <c r="L121" s="34"/>
-      <c r="M121" s="34"/>
-      <c r="N121" s="34"/>
-      <c r="O121" s="34"/>
-      <c r="P121" s="34"/>
-      <c r="Q121" s="34"/>
-      <c r="R121" s="34"/>
-      <c r="S121" s="34"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="34"/>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="34"/>
-      <c r="S122" s="34"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A123" s="34"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="34"/>
-      <c r="L123" s="34"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34"/>
-      <c r="S123" s="34"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="34"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="34"/>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="34"/>
-      <c r="R124" s="34"/>
-      <c r="S124" s="34"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="34"/>
-      <c r="L125" s="34"/>
-      <c r="M125" s="34"/>
-      <c r="N125" s="34"/>
-      <c r="O125" s="34"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="34"/>
-      <c r="R125" s="34"/>
-      <c r="S125" s="34"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="34"/>
-      <c r="L126" s="34"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="34"/>
-      <c r="O126" s="34"/>
-      <c r="P126" s="34"/>
-      <c r="Q126" s="34"/>
-      <c r="R126" s="34"/>
-      <c r="S126" s="34"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127" s="34"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="34"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="34"/>
-      <c r="L127" s="34"/>
-      <c r="M127" s="34"/>
-      <c r="N127" s="34"/>
-      <c r="O127" s="34"/>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="34"/>
-      <c r="R127" s="34"/>
-      <c r="S127" s="34"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="34"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="34"/>
-      <c r="L128" s="34"/>
-      <c r="M128" s="34"/>
-      <c r="N128" s="34"/>
-      <c r="O128" s="34"/>
-      <c r="P128" s="34"/>
-      <c r="Q128" s="34"/>
-      <c r="R128" s="34"/>
-      <c r="S128" s="34"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="34"/>
-      <c r="L129" s="34"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="34"/>
-      <c r="O129" s="34"/>
-      <c r="P129" s="34"/>
-      <c r="Q129" s="34"/>
-      <c r="R129" s="34"/>
-      <c r="S129" s="34"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130" s="34"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="34"/>
-      <c r="L130" s="34"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="34"/>
-      <c r="O130" s="34"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="34"/>
-      <c r="R130" s="34"/>
-      <c r="S130" s="34"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
-      <c r="L131" s="34"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="34"/>
-      <c r="O131" s="34"/>
-      <c r="P131" s="34"/>
-      <c r="Q131" s="34"/>
-      <c r="R131" s="34"/>
-      <c r="S131" s="34"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
-      <c r="I132" s="34"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="34"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34"/>
-      <c r="S132" s="34"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133" s="34"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="34"/>
-      <c r="L133" s="34"/>
-      <c r="M133" s="34"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="34"/>
-      <c r="P133" s="34"/>
-      <c r="Q133" s="34"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="34"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
-      <c r="L134" s="34"/>
-      <c r="M134" s="34"/>
-      <c r="N134" s="34"/>
-      <c r="O134" s="34"/>
-      <c r="P134" s="34"/>
-      <c r="Q134" s="34"/>
-      <c r="R134" s="34"/>
-      <c r="S134" s="34"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135" s="34"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="34"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="34"/>
-      <c r="L135" s="34"/>
-      <c r="M135" s="34"/>
-      <c r="N135" s="34"/>
-      <c r="O135" s="34"/>
-      <c r="P135" s="34"/>
-      <c r="Q135" s="34"/>
-      <c r="R135" s="34"/>
-      <c r="S135" s="34"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136" s="34"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="34"/>
-      <c r="L136" s="34"/>
-      <c r="M136" s="34"/>
-      <c r="N136" s="34"/>
-      <c r="O136" s="34"/>
-      <c r="P136" s="34"/>
-      <c r="Q136" s="34"/>
-      <c r="R136" s="34"/>
-      <c r="S136" s="34"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
-      <c r="L137" s="34"/>
-      <c r="M137" s="34"/>
-      <c r="N137" s="34"/>
-      <c r="O137" s="34"/>
-      <c r="P137" s="34"/>
-      <c r="Q137" s="34"/>
-      <c r="R137" s="34"/>
-      <c r="S137" s="34"/>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A138" s="34"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="34"/>
-      <c r="L138" s="34"/>
-      <c r="M138" s="34"/>
-      <c r="N138" s="34"/>
-      <c r="O138" s="34"/>
-      <c r="P138" s="34"/>
-      <c r="Q138" s="34"/>
-      <c r="R138" s="34"/>
-      <c r="S138" s="34"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A139" s="34"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="34"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="34"/>
-      <c r="L139" s="34"/>
-      <c r="M139" s="34"/>
-      <c r="N139" s="34"/>
-      <c r="O139" s="34"/>
-      <c r="P139" s="34"/>
-      <c r="Q139" s="34"/>
-      <c r="R139" s="34"/>
-      <c r="S139" s="34"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="34"/>
-      <c r="L140" s="34"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="34"/>
-      <c r="O140" s="34"/>
-      <c r="P140" s="34"/>
-      <c r="Q140" s="34"/>
-      <c r="R140" s="34"/>
-      <c r="S140" s="34"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="34"/>
-      <c r="L141" s="34"/>
-      <c r="M141" s="34"/>
-      <c r="N141" s="34"/>
-      <c r="O141" s="34"/>
-      <c r="P141" s="34"/>
-      <c r="Q141" s="34"/>
-      <c r="R141" s="34"/>
-      <c r="S141" s="34"/>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A142" s="34"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
-      <c r="L142" s="34"/>
-      <c r="M142" s="34"/>
-      <c r="N142" s="34"/>
-      <c r="O142" s="34"/>
-      <c r="P142" s="34"/>
-      <c r="Q142" s="34"/>
-      <c r="R142" s="34"/>
-      <c r="S142" s="34"/>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A143" s="34"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="34"/>
-      <c r="L143" s="34"/>
-      <c r="M143" s="34"/>
-      <c r="N143" s="34"/>
-      <c r="O143" s="34"/>
-      <c r="P143" s="34"/>
-      <c r="Q143" s="34"/>
-      <c r="R143" s="34"/>
-      <c r="S143" s="34"/>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A144" s="34"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="34"/>
-      <c r="I144" s="34"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="34"/>
-      <c r="L144" s="34"/>
-      <c r="M144" s="34"/>
-      <c r="N144" s="34"/>
-      <c r="O144" s="34"/>
-      <c r="P144" s="34"/>
-      <c r="Q144" s="34"/>
-      <c r="R144" s="34"/>
-      <c r="S144" s="34"/>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A145" s="34"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="34"/>
-      <c r="L145" s="34"/>
-      <c r="M145" s="34"/>
-      <c r="N145" s="34"/>
-      <c r="O145" s="34"/>
-      <c r="P145" s="34"/>
-      <c r="Q145" s="34"/>
-      <c r="R145" s="34"/>
-      <c r="S145" s="34"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A146" s="34"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="34"/>
-      <c r="L146" s="34"/>
-      <c r="M146" s="34"/>
-      <c r="N146" s="34"/>
-      <c r="O146" s="34"/>
-      <c r="P146" s="34"/>
-      <c r="Q146" s="34"/>
-      <c r="R146" s="34"/>
-      <c r="S146" s="34"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A147" s="34"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="34"/>
-      <c r="L147" s="34"/>
-      <c r="M147" s="34"/>
-      <c r="N147" s="34"/>
-      <c r="O147" s="34"/>
-      <c r="P147" s="34"/>
-      <c r="Q147" s="34"/>
-      <c r="R147" s="34"/>
-      <c r="S147" s="34"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A148" s="34"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="34"/>
-      <c r="L148" s="34"/>
-      <c r="M148" s="34"/>
-      <c r="N148" s="34"/>
-      <c r="O148" s="34"/>
-      <c r="P148" s="34"/>
-      <c r="Q148" s="34"/>
-      <c r="R148" s="34"/>
-      <c r="S148" s="34"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="34"/>
-      <c r="L149" s="34"/>
-      <c r="M149" s="34"/>
-      <c r="N149" s="34"/>
-      <c r="O149" s="34"/>
-      <c r="P149" s="34"/>
-      <c r="Q149" s="34"/>
-      <c r="R149" s="34"/>
-      <c r="S149" s="34"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="34"/>
-      <c r="L150" s="34"/>
-      <c r="M150" s="34"/>
-      <c r="N150" s="34"/>
-      <c r="O150" s="34"/>
-      <c r="P150" s="34"/>
-      <c r="Q150" s="34"/>
-      <c r="R150" s="34"/>
-      <c r="S150" s="34"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A151" s="34"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="34"/>
-      <c r="L151" s="34"/>
-      <c r="M151" s="34"/>
-      <c r="N151" s="34"/>
-      <c r="O151" s="34"/>
-      <c r="P151" s="34"/>
-      <c r="Q151" s="34"/>
-      <c r="R151" s="34"/>
-      <c r="S151" s="34"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="34"/>
-      <c r="L152" s="34"/>
-      <c r="M152" s="34"/>
-      <c r="N152" s="34"/>
-      <c r="O152" s="34"/>
-      <c r="P152" s="34"/>
-      <c r="Q152" s="34"/>
-      <c r="R152" s="34"/>
-      <c r="S152" s="34"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A153" s="34"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="34"/>
-      <c r="L153" s="34"/>
-      <c r="M153" s="34"/>
-      <c r="N153" s="34"/>
-      <c r="O153" s="34"/>
-      <c r="P153" s="34"/>
-      <c r="Q153" s="34"/>
-      <c r="R153" s="34"/>
-      <c r="S153" s="34"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="34"/>
-      <c r="L154" s="34"/>
-      <c r="M154" s="34"/>
-      <c r="N154" s="34"/>
-      <c r="O154" s="34"/>
-      <c r="P154" s="34"/>
-      <c r="Q154" s="34"/>
-      <c r="R154" s="34"/>
-      <c r="S154" s="34"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="34"/>
-      <c r="L155" s="34"/>
-      <c r="M155" s="34"/>
-      <c r="N155" s="34"/>
-      <c r="O155" s="34"/>
-      <c r="P155" s="34"/>
-      <c r="Q155" s="34"/>
-      <c r="R155" s="34"/>
-      <c r="S155" s="34"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A156" s="34"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="34"/>
-      <c r="L156" s="34"/>
-      <c r="M156" s="34"/>
-      <c r="N156" s="34"/>
-      <c r="O156" s="34"/>
-      <c r="P156" s="34"/>
-      <c r="Q156" s="34"/>
-      <c r="R156" s="34"/>
-      <c r="S156" s="34"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" s="34"/>
-      <c r="B157" s="34"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="34"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="34"/>
-      <c r="L157" s="34"/>
-      <c r="M157" s="34"/>
-      <c r="N157" s="34"/>
-      <c r="O157" s="34"/>
-      <c r="P157" s="34"/>
-      <c r="Q157" s="34"/>
-      <c r="R157" s="34"/>
-      <c r="S157" s="34"/>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A158" s="34"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="34"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="34"/>
-      <c r="L158" s="34"/>
-      <c r="M158" s="34"/>
-      <c r="N158" s="34"/>
-      <c r="O158" s="34"/>
-      <c r="P158" s="34"/>
-      <c r="Q158" s="34"/>
-      <c r="R158" s="34"/>
-      <c r="S158" s="34"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A159" s="34"/>
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="34"/>
-      <c r="L159" s="34"/>
-      <c r="M159" s="34"/>
-      <c r="N159" s="34"/>
-      <c r="O159" s="34"/>
-      <c r="P159" s="34"/>
-      <c r="Q159" s="34"/>
-      <c r="R159" s="34"/>
-      <c r="S159" s="34"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A160" s="34"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
-      <c r="E160" s="34"/>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="34"/>
-      <c r="L160" s="34"/>
-      <c r="M160" s="34"/>
-      <c r="N160" s="34"/>
-      <c r="O160" s="34"/>
-      <c r="P160" s="34"/>
-      <c r="Q160" s="34"/>
-      <c r="R160" s="34"/>
-      <c r="S160" s="34"/>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A161" s="34"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="34"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="34"/>
-      <c r="L161" s="34"/>
-      <c r="M161" s="34"/>
-      <c r="N161" s="34"/>
-      <c r="O161" s="34"/>
-      <c r="P161" s="34"/>
-      <c r="Q161" s="34"/>
-      <c r="R161" s="34"/>
-      <c r="S161" s="34"/>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A162" s="34"/>
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="34"/>
-      <c r="I162" s="34"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="34"/>
-      <c r="L162" s="34"/>
-      <c r="M162" s="34"/>
-      <c r="N162" s="34"/>
-      <c r="O162" s="34"/>
-      <c r="P162" s="34"/>
-      <c r="Q162" s="34"/>
-      <c r="R162" s="34"/>
-      <c r="S162" s="34"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A163" s="34"/>
-      <c r="B163" s="34"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="34"/>
-      <c r="G163" s="34"/>
-      <c r="H163" s="34"/>
-      <c r="I163" s="34"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="34"/>
-      <c r="L163" s="34"/>
-      <c r="M163" s="34"/>
-      <c r="N163" s="34"/>
-      <c r="O163" s="34"/>
-      <c r="P163" s="34"/>
-      <c r="Q163" s="34"/>
-      <c r="R163" s="34"/>
-      <c r="S163" s="34"/>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A164" s="34"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
-      <c r="F164" s="34"/>
-      <c r="G164" s="34"/>
-      <c r="H164" s="34"/>
-      <c r="I164" s="34"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="34"/>
-      <c r="L164" s="34"/>
-      <c r="M164" s="34"/>
-      <c r="N164" s="34"/>
-      <c r="O164" s="34"/>
-      <c r="P164" s="34"/>
-      <c r="Q164" s="34"/>
-      <c r="R164" s="34"/>
-      <c r="S164" s="34"/>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A165" s="34"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="34"/>
-      <c r="G165" s="34"/>
-      <c r="H165" s="34"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="34"/>
-      <c r="L165" s="34"/>
-      <c r="M165" s="34"/>
-      <c r="N165" s="34"/>
-      <c r="O165" s="34"/>
-      <c r="P165" s="34"/>
-      <c r="Q165" s="34"/>
-      <c r="R165" s="34"/>
-      <c r="S165" s="34"/>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A166" s="34"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="34"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="34"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="34"/>
-      <c r="L166" s="34"/>
-      <c r="M166" s="34"/>
-      <c r="N166" s="34"/>
-      <c r="O166" s="34"/>
-      <c r="P166" s="34"/>
-      <c r="Q166" s="34"/>
-      <c r="R166" s="34"/>
-      <c r="S166" s="34"/>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A167" s="34"/>
-      <c r="B167" s="34"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="34"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="34"/>
-      <c r="L167" s="34"/>
-      <c r="M167" s="34"/>
-      <c r="N167" s="34"/>
-      <c r="O167" s="34"/>
-      <c r="P167" s="34"/>
-      <c r="Q167" s="34"/>
-      <c r="R167" s="34"/>
-      <c r="S167" s="34"/>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A168" s="34"/>
-      <c r="B168" s="34"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="34"/>
-      <c r="I168" s="34"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="34"/>
-      <c r="L168" s="34"/>
-      <c r="M168" s="34"/>
-      <c r="N168" s="34"/>
-      <c r="O168" s="34"/>
-      <c r="P168" s="34"/>
-      <c r="Q168" s="34"/>
-      <c r="R168" s="34"/>
-      <c r="S168" s="34"/>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A169" s="34"/>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="34"/>
-      <c r="H169" s="34"/>
-      <c r="I169" s="34"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="34"/>
-      <c r="L169" s="34"/>
-      <c r="M169" s="34"/>
-      <c r="N169" s="34"/>
-      <c r="O169" s="34"/>
-      <c r="P169" s="34"/>
-      <c r="Q169" s="34"/>
-      <c r="R169" s="34"/>
-      <c r="S169" s="34"/>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A170" s="34"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="34"/>
-      <c r="I170" s="34"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="34"/>
-      <c r="L170" s="34"/>
-      <c r="M170" s="34"/>
-      <c r="N170" s="34"/>
-      <c r="O170" s="34"/>
-      <c r="P170" s="34"/>
-      <c r="Q170" s="34"/>
-      <c r="R170" s="34"/>
-      <c r="S170" s="34"/>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A171" s="34"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="34"/>
-      <c r="L171" s="34"/>
-      <c r="M171" s="34"/>
-      <c r="N171" s="34"/>
-      <c r="O171" s="34"/>
-      <c r="P171" s="34"/>
-      <c r="Q171" s="34"/>
-      <c r="R171" s="34"/>
-      <c r="S171" s="34"/>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A172" s="34"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="34"/>
-      <c r="I172" s="34"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="34"/>
-      <c r="L172" s="34"/>
-      <c r="M172" s="34"/>
-      <c r="N172" s="34"/>
-      <c r="O172" s="34"/>
-      <c r="P172" s="34"/>
-      <c r="Q172" s="34"/>
-      <c r="R172" s="34"/>
-      <c r="S172" s="34"/>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="S88" s="33"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="33"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="S90" s="33"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="33"/>
+      <c r="S95" s="33"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="33"/>
+      <c r="S96" s="33"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="33"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="33"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="33"/>
+      <c r="R97" s="33"/>
+      <c r="S97" s="33"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33"/>
+      <c r="R98" s="33"/>
+      <c r="S98" s="33"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="33"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="33"/>
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="33"/>
+      <c r="S101" s="33"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33"/>
+      <c r="S102" s="33"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33"/>
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="33"/>
+      <c r="S104" s="33"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33"/>
+      <c r="S105" s="33"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="33"/>
+      <c r="L106" s="33"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="33"/>
+      <c r="O106" s="33"/>
+      <c r="P106" s="33"/>
+      <c r="Q106" s="33"/>
+      <c r="R106" s="33"/>
+      <c r="S106" s="33"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="33"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="33"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="33"/>
+      <c r="S107" s="33"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="33"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="33"/>
+      <c r="O108" s="33"/>
+      <c r="P108" s="33"/>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33"/>
+      <c r="S108" s="33"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="33"/>
+      <c r="O109" s="33"/>
+      <c r="P109" s="33"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="33"/>
+      <c r="S109" s="33"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="33"/>
+      <c r="L110" s="33"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="33"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="33"/>
+      <c r="O112" s="33"/>
+      <c r="P112" s="33"/>
+      <c r="Q112" s="33"/>
+      <c r="R112" s="33"/>
+      <c r="S112" s="33"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="33"/>
+      <c r="O113" s="33"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="33"/>
+      <c r="S113" s="33"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="33"/>
+      <c r="S114" s="33"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="33"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="33"/>
+      <c r="Q115" s="33"/>
+      <c r="R115" s="33"/>
+      <c r="S115" s="33"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="33"/>
+      <c r="S116" s="33"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="33"/>
+      <c r="O117" s="33"/>
+      <c r="P117" s="33"/>
+      <c r="Q117" s="33"/>
+      <c r="R117" s="33"/>
+      <c r="S117" s="33"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="33"/>
+      <c r="S118" s="33"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="33"/>
+      <c r="O119" s="33"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="33"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="33"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="33"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="33"/>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="33"/>
+      <c r="S120" s="33"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
+      <c r="R121" s="33"/>
+      <c r="S121" s="33"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="33"/>
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="33"/>
+      <c r="S122" s="33"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
+      <c r="L123" s="33"/>
+      <c r="M123" s="33"/>
+      <c r="N123" s="33"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="33"/>
+      <c r="Q123" s="33"/>
+      <c r="R123" s="33"/>
+      <c r="S123" s="33"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+      <c r="L124" s="33"/>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
+      <c r="L125" s="33"/>
+      <c r="M125" s="33"/>
+      <c r="N125" s="33"/>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
+      <c r="R125" s="33"/>
+      <c r="S125" s="33"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="33"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="33"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
+      <c r="R126" s="33"/>
+      <c r="S126" s="33"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="33"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="33"/>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="33"/>
+      <c r="S127" s="33"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="33"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="33"/>
+      <c r="S128" s="33"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="33"/>
+      <c r="Q129" s="33"/>
+      <c r="R129" s="33"/>
+      <c r="S129" s="33"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="33"/>
+      <c r="L130" s="33"/>
+      <c r="M130" s="33"/>
+      <c r="N130" s="33"/>
+      <c r="O130" s="33"/>
+      <c r="P130" s="33"/>
+      <c r="Q130" s="33"/>
+      <c r="R130" s="33"/>
+      <c r="S130" s="33"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="33"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="33"/>
+      <c r="O131" s="33"/>
+      <c r="P131" s="33"/>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="33"/>
+      <c r="S131" s="33"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="33"/>
+      <c r="L132" s="33"/>
+      <c r="M132" s="33"/>
+      <c r="N132" s="33"/>
+      <c r="O132" s="33"/>
+      <c r="P132" s="33"/>
+      <c r="Q132" s="33"/>
+      <c r="R132" s="33"/>
+      <c r="S132" s="33"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="33"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="33"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="33"/>
+      <c r="L134" s="33"/>
+      <c r="M134" s="33"/>
+      <c r="N134" s="33"/>
+      <c r="O134" s="33"/>
+      <c r="P134" s="33"/>
+      <c r="Q134" s="33"/>
+      <c r="R134" s="33"/>
+      <c r="S134" s="33"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="33"/>
+      <c r="P135" s="33"/>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="33"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="33"/>
+      <c r="L136" s="33"/>
+      <c r="M136" s="33"/>
+      <c r="N136" s="33"/>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33"/>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="33"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
+      <c r="N137" s="33"/>
+      <c r="O137" s="33"/>
+      <c r="P137" s="33"/>
+      <c r="Q137" s="33"/>
+      <c r="R137" s="33"/>
+      <c r="S137" s="33"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="33"/>
+      <c r="L138" s="33"/>
+      <c r="M138" s="33"/>
+      <c r="N138" s="33"/>
+      <c r="O138" s="33"/>
+      <c r="P138" s="33"/>
+      <c r="Q138" s="33"/>
+      <c r="R138" s="33"/>
+      <c r="S138" s="33"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="33"/>
+      <c r="L139" s="33"/>
+      <c r="M139" s="33"/>
+      <c r="N139" s="33"/>
+      <c r="O139" s="33"/>
+      <c r="P139" s="33"/>
+      <c r="Q139" s="33"/>
+      <c r="R139" s="33"/>
+      <c r="S139" s="33"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="33"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="33"/>
+      <c r="L140" s="33"/>
+      <c r="M140" s="33"/>
+      <c r="N140" s="33"/>
+      <c r="O140" s="33"/>
+      <c r="P140" s="33"/>
+      <c r="Q140" s="33"/>
+      <c r="R140" s="33"/>
+      <c r="S140" s="33"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="33"/>
+      <c r="O141" s="33"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="33"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="33"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="33"/>
+      <c r="L142" s="33"/>
+      <c r="M142" s="33"/>
+      <c r="N142" s="33"/>
+      <c r="O142" s="33"/>
+      <c r="P142" s="33"/>
+      <c r="Q142" s="33"/>
+      <c r="R142" s="33"/>
+      <c r="S142" s="33"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="33"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="33"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="33"/>
+      <c r="L143" s="33"/>
+      <c r="M143" s="33"/>
+      <c r="N143" s="33"/>
+      <c r="O143" s="33"/>
+      <c r="P143" s="33"/>
+      <c r="Q143" s="33"/>
+      <c r="R143" s="33"/>
+      <c r="S143" s="33"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="33"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="33"/>
+      <c r="L144" s="33"/>
+      <c r="M144" s="33"/>
+      <c r="N144" s="33"/>
+      <c r="O144" s="33"/>
+      <c r="P144" s="33"/>
+      <c r="Q144" s="33"/>
+      <c r="R144" s="33"/>
+      <c r="S144" s="33"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="33"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="33"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="33"/>
+      <c r="L145" s="33"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="33"/>
+      <c r="O145" s="33"/>
+      <c r="P145" s="33"/>
+      <c r="Q145" s="33"/>
+      <c r="R145" s="33"/>
+      <c r="S145" s="33"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="33"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="33"/>
+      <c r="L146" s="33"/>
+      <c r="M146" s="33"/>
+      <c r="N146" s="33"/>
+      <c r="O146" s="33"/>
+      <c r="P146" s="33"/>
+      <c r="Q146" s="33"/>
+      <c r="R146" s="33"/>
+      <c r="S146" s="33"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="33"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="33"/>
+      <c r="L147" s="33"/>
+      <c r="M147" s="33"/>
+      <c r="N147" s="33"/>
+      <c r="O147" s="33"/>
+      <c r="P147" s="33"/>
+      <c r="Q147" s="33"/>
+      <c r="R147" s="33"/>
+      <c r="S147" s="33"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="33"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="33"/>
+      <c r="L148" s="33"/>
+      <c r="M148" s="33"/>
+      <c r="N148" s="33"/>
+      <c r="O148" s="33"/>
+      <c r="P148" s="33"/>
+      <c r="Q148" s="33"/>
+      <c r="R148" s="33"/>
+      <c r="S148" s="33"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="33"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="33"/>
+      <c r="L149" s="33"/>
+      <c r="M149" s="33"/>
+      <c r="N149" s="33"/>
+      <c r="O149" s="33"/>
+      <c r="P149" s="33"/>
+      <c r="Q149" s="33"/>
+      <c r="R149" s="33"/>
+      <c r="S149" s="33"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="33"/>
+      <c r="L150" s="33"/>
+      <c r="M150" s="33"/>
+      <c r="N150" s="33"/>
+      <c r="O150" s="33"/>
+      <c r="P150" s="33"/>
+      <c r="Q150" s="33"/>
+      <c r="R150" s="33"/>
+      <c r="S150" s="33"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="33"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="33"/>
+      <c r="L151" s="33"/>
+      <c r="M151" s="33"/>
+      <c r="N151" s="33"/>
+      <c r="O151" s="33"/>
+      <c r="P151" s="33"/>
+      <c r="Q151" s="33"/>
+      <c r="R151" s="33"/>
+      <c r="S151" s="33"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="33"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="33"/>
+      <c r="L152" s="33"/>
+      <c r="M152" s="33"/>
+      <c r="N152" s="33"/>
+      <c r="O152" s="33"/>
+      <c r="P152" s="33"/>
+      <c r="Q152" s="33"/>
+      <c r="R152" s="33"/>
+      <c r="S152" s="33"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="33"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="33"/>
+      <c r="L153" s="33"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33"/>
+      <c r="O153" s="33"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="33"/>
+      <c r="R153" s="33"/>
+      <c r="S153" s="33"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="33"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="33"/>
+      <c r="L154" s="33"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
+      <c r="P154" s="33"/>
+      <c r="Q154" s="33"/>
+      <c r="R154" s="33"/>
+      <c r="S154" s="33"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="33"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="33"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="33"/>
+      <c r="R155" s="33"/>
+      <c r="S155" s="33"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="33"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="33"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="33"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
+      <c r="P156" s="33"/>
+      <c r="Q156" s="33"/>
+      <c r="R156" s="33"/>
+      <c r="S156" s="33"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="33"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="33"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="33"/>
+      <c r="R157" s="33"/>
+      <c r="S157" s="33"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="33"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="33"/>
+      <c r="L158" s="33"/>
+      <c r="M158" s="33"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="33"/>
+      <c r="P158" s="33"/>
+      <c r="Q158" s="33"/>
+      <c r="R158" s="33"/>
+      <c r="S158" s="33"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="33"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="33"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="33"/>
+      <c r="L159" s="33"/>
+      <c r="M159" s="33"/>
+      <c r="N159" s="33"/>
+      <c r="O159" s="33"/>
+      <c r="P159" s="33"/>
+      <c r="Q159" s="33"/>
+      <c r="R159" s="33"/>
+      <c r="S159" s="33"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="33"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="33"/>
+      <c r="L160" s="33"/>
+      <c r="M160" s="33"/>
+      <c r="N160" s="33"/>
+      <c r="O160" s="33"/>
+      <c r="P160" s="33"/>
+      <c r="Q160" s="33"/>
+      <c r="R160" s="33"/>
+      <c r="S160" s="33"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="33"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="33"/>
+      <c r="L161" s="33"/>
+      <c r="M161" s="33"/>
+      <c r="N161" s="33"/>
+      <c r="O161" s="33"/>
+      <c r="P161" s="33"/>
+      <c r="Q161" s="33"/>
+      <c r="R161" s="33"/>
+      <c r="S161" s="33"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="33"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="33"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="33"/>
+      <c r="L162" s="33"/>
+      <c r="M162" s="33"/>
+      <c r="N162" s="33"/>
+      <c r="O162" s="33"/>
+      <c r="P162" s="33"/>
+      <c r="Q162" s="33"/>
+      <c r="R162" s="33"/>
+      <c r="S162" s="33"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="33"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="33"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="33"/>
+      <c r="L163" s="33"/>
+      <c r="M163" s="33"/>
+      <c r="N163" s="33"/>
+      <c r="O163" s="33"/>
+      <c r="P163" s="33"/>
+      <c r="Q163" s="33"/>
+      <c r="R163" s="33"/>
+      <c r="S163" s="33"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="33"/>
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="33"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="33"/>
+      <c r="L164" s="33"/>
+      <c r="M164" s="33"/>
+      <c r="N164" s="33"/>
+      <c r="O164" s="33"/>
+      <c r="P164" s="33"/>
+      <c r="Q164" s="33"/>
+      <c r="R164" s="33"/>
+      <c r="S164" s="33"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="33"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
+      <c r="I165" s="33"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="33"/>
+      <c r="L165" s="33"/>
+      <c r="M165" s="33"/>
+      <c r="N165" s="33"/>
+      <c r="O165" s="33"/>
+      <c r="P165" s="33"/>
+      <c r="Q165" s="33"/>
+      <c r="R165" s="33"/>
+      <c r="S165" s="33"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="33"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="33"/>
+      <c r="M166" s="33"/>
+      <c r="N166" s="33"/>
+      <c r="O166" s="33"/>
+      <c r="P166" s="33"/>
+      <c r="Q166" s="33"/>
+      <c r="R166" s="33"/>
+      <c r="S166" s="33"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="33"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="33"/>
+      <c r="L167" s="33"/>
+      <c r="M167" s="33"/>
+      <c r="N167" s="33"/>
+      <c r="O167" s="33"/>
+      <c r="P167" s="33"/>
+      <c r="Q167" s="33"/>
+      <c r="R167" s="33"/>
+      <c r="S167" s="33"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="33"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="33"/>
+      <c r="M168" s="33"/>
+      <c r="N168" s="33"/>
+      <c r="O168" s="33"/>
+      <c r="P168" s="33"/>
+      <c r="Q168" s="33"/>
+      <c r="R168" s="33"/>
+      <c r="S168" s="33"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="33"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="33"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="33"/>
+      <c r="L169" s="33"/>
+      <c r="M169" s="33"/>
+      <c r="N169" s="33"/>
+      <c r="O169" s="33"/>
+      <c r="P169" s="33"/>
+      <c r="Q169" s="33"/>
+      <c r="R169" s="33"/>
+      <c r="S169" s="33"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="33"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="33"/>
+      <c r="L170" s="33"/>
+      <c r="M170" s="33"/>
+      <c r="N170" s="33"/>
+      <c r="O170" s="33"/>
+      <c r="P170" s="33"/>
+      <c r="Q170" s="33"/>
+      <c r="R170" s="33"/>
+      <c r="S170" s="33"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="33"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="33"/>
+      <c r="L171" s="33"/>
+      <c r="M171" s="33"/>
+      <c r="N171" s="33"/>
+      <c r="O171" s="33"/>
+      <c r="P171" s="33"/>
+      <c r="Q171" s="33"/>
+      <c r="R171" s="33"/>
+      <c r="S171" s="33"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="33"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="33"/>
+      <c r="L172" s="33"/>
+      <c r="M172" s="33"/>
+      <c r="N172" s="33"/>
+      <c r="O172" s="33"/>
+      <c r="P172" s="33"/>
+      <c r="Q172" s="33"/>
+      <c r="R172" s="33"/>
+      <c r="S172" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D13:S13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
+  <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P53:S53"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B52:B54"/>
@@ -4785,12 +4785,15 @@
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D52:S52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D13:S13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4806,7 +4809,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
+++ b/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\tugas individu\Lampiran Tugas 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D5E90-0F33-44BC-A67F-5E06C07333FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B7CF4-22DA-4F0C-A378-4C75107F372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Prediksi LSTM-RNN" sheetId="2" r:id="rId1"/>
@@ -396,22 +396,7 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,8 +408,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,8 +447,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -926,33 +926,33 @@
   <dimension ref="A1:S172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="19" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="19" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="51"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="3"/>
@@ -960,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -974,7 +974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -988,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="F6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,11 +1042,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>34</v>
       </c>
@@ -1059,68 +1059,68 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="34" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="34" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="34" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="34" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="R16" s="13"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="R17" s="13"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>5</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="R20" s="13"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>7</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>8</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>9</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>10</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>11</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="5">
         <v>12</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="R27" s="32"/>
       <c r="S27" s="30"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="5">
         <v>13</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="R28" s="32"/>
       <c r="S28" s="30"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>14</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>15</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="R30" s="13"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>16</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="R31" s="17"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>17</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>18</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>19</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>20</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>21</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="R36" s="13"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>22</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="R37" s="13"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="5">
         <v>23</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="R38" s="13"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="5">
         <v>24</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>25</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="R40" s="13"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="9">
         <v>26</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="20"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="9">
         <v>27</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="20"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>28</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="9">
         <v>29</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="9">
         <v>30</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -1953,7 +1953,7 @@
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -1974,7 +1974,7 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -1995,7 +1995,7 @@
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -2016,7 +2016,7 @@
       <c r="R50" s="33"/>
       <c r="S50" s="33"/>
     </row>
-    <row r="51" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>35</v>
       </c>
@@ -2039,68 +2039,68 @@
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="39"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="34" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="40"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="34" t="s">
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="34" t="s">
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="34" t="s">
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="36"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="43"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="11">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>1</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="R55" s="13"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>2</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="R56" s="13"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>3</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="R57" s="13"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>4</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="R58" s="13"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>5</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="8"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>6</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="R60" s="17"/>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>7</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>8</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>9</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>10</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>11</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="5">
         <v>12</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="R66" s="32"/>
       <c r="S66" s="30"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="5">
         <v>13</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="R67" s="32"/>
       <c r="S67" s="30"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>14</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>15</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>16</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="R70" s="17"/>
       <c r="S70" s="19"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>17</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="R71" s="17"/>
       <c r="S71" s="19"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
         <v>18</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
         <v>19</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>20</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="R74" s="17"/>
       <c r="S74" s="18"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>21</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="R75" s="13"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>22</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="R76" s="13"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="5">
         <v>23</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="R77" s="13"/>
       <c r="S77" s="14"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="5">
         <v>24</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="R78" s="13"/>
       <c r="S78" s="14"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>25</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="R79" s="13"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="9">
         <v>26</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="R80" s="17"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="9">
         <v>27</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="R81" s="17"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>28</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="R82" s="17"/>
       <c r="S82" s="20"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="9">
         <v>29</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="R83" s="25"/>
       <c r="S83" s="25"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="9">
         <v>30</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="R84" s="25"/>
       <c r="S84" s="25"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -2933,7 +2933,7 @@
       <c r="R85" s="33"/>
       <c r="S85" s="33"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -2954,7 +2954,7 @@
       <c r="R86" s="33"/>
       <c r="S86" s="33"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -2975,7 +2975,7 @@
       <c r="R87" s="33"/>
       <c r="S87" s="33"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -2996,7 +2996,7 @@
       <c r="R88" s="33"/>
       <c r="S88" s="33"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -3017,7 +3017,7 @@
       <c r="R89" s="33"/>
       <c r="S89" s="33"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -3038,7 +3038,7 @@
       <c r="R90" s="33"/>
       <c r="S90" s="33"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -3059,7 +3059,7 @@
       <c r="R91" s="33"/>
       <c r="S91" s="33"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -3080,7 +3080,7 @@
       <c r="R92" s="33"/>
       <c r="S92" s="33"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -3101,7 +3101,7 @@
       <c r="R93" s="33"/>
       <c r="S93" s="33"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -3122,7 +3122,7 @@
       <c r="R94" s="33"/>
       <c r="S94" s="33"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -3143,7 +3143,7 @@
       <c r="R95" s="33"/>
       <c r="S95" s="33"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -3164,7 +3164,7 @@
       <c r="R96" s="33"/>
       <c r="S96" s="33"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -3185,7 +3185,7 @@
       <c r="R97" s="33"/>
       <c r="S97" s="33"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -3206,7 +3206,7 @@
       <c r="R98" s="33"/>
       <c r="S98" s="33"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -3227,7 +3227,7 @@
       <c r="R99" s="33"/>
       <c r="S99" s="33"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -3248,7 +3248,7 @@
       <c r="R100" s="33"/>
       <c r="S100" s="33"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="33"/>
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
@@ -3269,7 +3269,7 @@
       <c r="R101" s="33"/>
       <c r="S101" s="33"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="33"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -3290,7 +3290,7 @@
       <c r="R102" s="33"/>
       <c r="S102" s="33"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="33"/>
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
@@ -3311,7 +3311,7 @@
       <c r="R103" s="33"/>
       <c r="S103" s="33"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="33"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
@@ -3332,7 +3332,7 @@
       <c r="R104" s="33"/>
       <c r="S104" s="33"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="33"/>
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
@@ -3353,7 +3353,7 @@
       <c r="R105" s="33"/>
       <c r="S105" s="33"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
@@ -3374,7 +3374,7 @@
       <c r="R106" s="33"/>
       <c r="S106" s="33"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="33"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -3395,7 +3395,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="33"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -3416,7 +3416,7 @@
       <c r="R108" s="33"/>
       <c r="S108" s="33"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="33"/>
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
@@ -3437,7 +3437,7 @@
       <c r="R109" s="33"/>
       <c r="S109" s="33"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="33"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
@@ -3458,7 +3458,7 @@
       <c r="R110" s="33"/>
       <c r="S110" s="33"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="33"/>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
@@ -3479,7 +3479,7 @@
       <c r="R111" s="33"/>
       <c r="S111" s="33"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
@@ -3500,7 +3500,7 @@
       <c r="R112" s="33"/>
       <c r="S112" s="33"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="33"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
@@ -3521,7 +3521,7 @@
       <c r="R113" s="33"/>
       <c r="S113" s="33"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="33"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
@@ -3542,7 +3542,7 @@
       <c r="R114" s="33"/>
       <c r="S114" s="33"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="33"/>
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
@@ -3563,7 +3563,7 @@
       <c r="R115" s="33"/>
       <c r="S115" s="33"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
@@ -3584,7 +3584,7 @@
       <c r="R116" s="33"/>
       <c r="S116" s="33"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="33"/>
       <c r="B117" s="33"/>
       <c r="C117" s="33"/>
@@ -3605,7 +3605,7 @@
       <c r="R117" s="33"/>
       <c r="S117" s="33"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="33"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
@@ -3626,7 +3626,7 @@
       <c r="R118" s="33"/>
       <c r="S118" s="33"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="33"/>
       <c r="B119" s="33"/>
       <c r="C119" s="33"/>
@@ -3647,7 +3647,7 @@
       <c r="R119" s="33"/>
       <c r="S119" s="33"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -3668,7 +3668,7 @@
       <c r="R120" s="33"/>
       <c r="S120" s="33"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="33"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
@@ -3689,7 +3689,7 @@
       <c r="R121" s="33"/>
       <c r="S121" s="33"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -3710,7 +3710,7 @@
       <c r="R122" s="33"/>
       <c r="S122" s="33"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="33"/>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
@@ -3731,7 +3731,7 @@
       <c r="R123" s="33"/>
       <c r="S123" s="33"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -3752,7 +3752,7 @@
       <c r="R124" s="33"/>
       <c r="S124" s="33"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
@@ -3773,7 +3773,7 @@
       <c r="R125" s="33"/>
       <c r="S125" s="33"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -3794,7 +3794,7 @@
       <c r="R126" s="33"/>
       <c r="S126" s="33"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33"/>
@@ -3815,7 +3815,7 @@
       <c r="R127" s="33"/>
       <c r="S127" s="33"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -3836,7 +3836,7 @@
       <c r="R128" s="33"/>
       <c r="S128" s="33"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
       <c r="C129" s="33"/>
@@ -3857,7 +3857,7 @@
       <c r="R129" s="33"/>
       <c r="S129" s="33"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -3878,7 +3878,7 @@
       <c r="R130" s="33"/>
       <c r="S130" s="33"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
       <c r="C131" s="33"/>
@@ -3899,7 +3899,7 @@
       <c r="R131" s="33"/>
       <c r="S131" s="33"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -3920,7 +3920,7 @@
       <c r="R132" s="33"/>
       <c r="S132" s="33"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
       <c r="C133" s="33"/>
@@ -3941,7 +3941,7 @@
       <c r="R133" s="33"/>
       <c r="S133" s="33"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -3962,7 +3962,7 @@
       <c r="R134" s="33"/>
       <c r="S134" s="33"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
@@ -3983,7 +3983,7 @@
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -4004,7 +4004,7 @@
       <c r="R136" s="33"/>
       <c r="S136" s="33"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
@@ -4025,7 +4025,7 @@
       <c r="R137" s="33"/>
       <c r="S137" s="33"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -4046,7 +4046,7 @@
       <c r="R138" s="33"/>
       <c r="S138" s="33"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
@@ -4067,7 +4067,7 @@
       <c r="R139" s="33"/>
       <c r="S139" s="33"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
@@ -4088,7 +4088,7 @@
       <c r="R140" s="33"/>
       <c r="S140" s="33"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141" s="33"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
@@ -4109,7 +4109,7 @@
       <c r="R141" s="33"/>
       <c r="S141" s="33"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
@@ -4130,7 +4130,7 @@
       <c r="R142" s="33"/>
       <c r="S142" s="33"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A143" s="33"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
@@ -4151,7 +4151,7 @@
       <c r="R143" s="33"/>
       <c r="S143" s="33"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
@@ -4172,7 +4172,7 @@
       <c r="R144" s="33"/>
       <c r="S144" s="33"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="33"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
@@ -4193,7 +4193,7 @@
       <c r="R145" s="33"/>
       <c r="S145" s="33"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -4214,7 +4214,7 @@
       <c r="R146" s="33"/>
       <c r="S146" s="33"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
@@ -4235,7 +4235,7 @@
       <c r="R147" s="33"/>
       <c r="S147" s="33"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
@@ -4256,7 +4256,7 @@
       <c r="R148" s="33"/>
       <c r="S148" s="33"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="33"/>
       <c r="B149" s="33"/>
       <c r="C149" s="33"/>
@@ -4277,7 +4277,7 @@
       <c r="R149" s="33"/>
       <c r="S149" s="33"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -4298,7 +4298,7 @@
       <c r="R150" s="33"/>
       <c r="S150" s="33"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="33"/>
       <c r="B151" s="33"/>
       <c r="C151" s="33"/>
@@ -4319,7 +4319,7 @@
       <c r="R151" s="33"/>
       <c r="S151" s="33"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="33"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
@@ -4340,7 +4340,7 @@
       <c r="R152" s="33"/>
       <c r="S152" s="33"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="33"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
@@ -4361,7 +4361,7 @@
       <c r="R153" s="33"/>
       <c r="S153" s="33"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
@@ -4382,7 +4382,7 @@
       <c r="R154" s="33"/>
       <c r="S154" s="33"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
@@ -4403,7 +4403,7 @@
       <c r="R155" s="33"/>
       <c r="S155" s="33"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
@@ -4424,7 +4424,7 @@
       <c r="R156" s="33"/>
       <c r="S156" s="33"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
@@ -4445,7 +4445,7 @@
       <c r="R157" s="33"/>
       <c r="S157" s="33"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -4466,7 +4466,7 @@
       <c r="R158" s="33"/>
       <c r="S158" s="33"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="33"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
@@ -4487,7 +4487,7 @@
       <c r="R159" s="33"/>
       <c r="S159" s="33"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -4508,7 +4508,7 @@
       <c r="R160" s="33"/>
       <c r="S160" s="33"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A161" s="33"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -4529,7 +4529,7 @@
       <c r="R161" s="33"/>
       <c r="S161" s="33"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
@@ -4550,7 +4550,7 @@
       <c r="R162" s="33"/>
       <c r="S162" s="33"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A163" s="33"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
@@ -4571,7 +4571,7 @@
       <c r="R163" s="33"/>
       <c r="S163" s="33"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -4592,7 +4592,7 @@
       <c r="R164" s="33"/>
       <c r="S164" s="33"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A165" s="33"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
@@ -4613,7 +4613,7 @@
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -4634,7 +4634,7 @@
       <c r="R166" s="33"/>
       <c r="S166" s="33"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
@@ -4655,7 +4655,7 @@
       <c r="R167" s="33"/>
       <c r="S167" s="33"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -4676,7 +4676,7 @@
       <c r="R168" s="33"/>
       <c r="S168" s="33"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -4697,7 +4697,7 @@
       <c r="R169" s="33"/>
       <c r="S169" s="33"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
@@ -4718,7 +4718,7 @@
       <c r="R170" s="33"/>
       <c r="S170" s="33"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A171" s="33"/>
       <c r="B171" s="33"/>
       <c r="C171" s="33"/>
@@ -4739,7 +4739,7 @@
       <c r="R171" s="33"/>
       <c r="S171" s="33"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -4762,13 +4762,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D52:S52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P53:S53"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B52:B54"/>
@@ -4785,6 +4778,13 @@
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P53:S53"/>
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="D13:S13"/>
@@ -4809,7 +4809,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
+++ b/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\tugas individu\Lampiran Tugas 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B7CF4-22DA-4F0C-A378-4C75107F372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC7165-C621-43EA-8939-ACD4A015A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
   </bookViews>
@@ -396,8 +396,17 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +415,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,27 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -926,7 +926,7 @@
   <dimension ref="A1:S172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,16 +937,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
@@ -1047,80 +1047,80 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="41" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="41" t="s">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="41" t="s">
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6">
@@ -1201,7 +1201,7 @@
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="6">
         <v>500</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="6">
         <v>1000</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6">
         <v>1500</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="10">
@@ -1328,7 +1328,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="10">
         <v>500</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="10">
         <v>1000</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="10">
         <v>1500</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="10">
         <v>2000</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="A26" s="5">
         <v>11</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="6">
@@ -1455,7 +1455,7 @@
       <c r="A27" s="5">
         <v>12</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="6">
         <v>500</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="A28" s="5">
         <v>13</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="6">
         <v>1000</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="A29" s="5">
         <v>14</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6">
         <v>1500</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="A30" s="5">
         <v>15</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="A31" s="9">
         <v>16</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="10">
@@ -1582,7 +1582,7 @@
       <c r="A32" s="9">
         <v>17</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10">
         <v>500</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="A33" s="9">
         <v>18</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10">
         <v>1000</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="10">
         <v>1500</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="B35" s="46"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="10">
         <v>2000</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="A36" s="5">
         <v>21</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="6">
@@ -1709,7 +1709,7 @@
       <c r="A37" s="5">
         <v>22</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="6">
         <v>500</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="A38" s="5">
         <v>23</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="6">
         <v>1000</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="A39" s="5">
         <v>24</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="6">
         <v>1500</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="A40" s="5">
         <v>25</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="6">
         <v>2000</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10">
@@ -1836,7 +1836,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10">
         <v>500</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="10">
         <v>1000</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="10">
         <v>1500</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="10">
         <v>2000</v>
       </c>
@@ -2017,13 +2017,13 @@
       <c r="S50" s="33"/>
     </row>
     <row r="51" spans="1:19" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -2040,67 +2040,67 @@
       <c r="S51" s="33"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="47"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="41" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="41" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="41" t="s">
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="41" t="s">
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="43"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="50"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="11">
         <v>8</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="A55" s="5">
         <v>1</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="6">
@@ -2181,7 +2181,7 @@
       <c r="A56" s="5">
         <v>2</v>
       </c>
-      <c r="B56" s="49"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="6">
         <v>500</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="49"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="6">
         <v>1000</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="A58" s="5">
         <v>4</v>
       </c>
-      <c r="B58" s="49"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="6">
         <v>1500</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="A59" s="5">
         <v>5</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="6">
         <v>2000</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="A60" s="9">
         <v>6</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="10">
@@ -2308,7 +2308,7 @@
       <c r="A61" s="9">
         <v>7</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="10">
         <v>500</v>
       </c>
@@ -2333,7 +2333,7 @@
       <c r="A62" s="9">
         <v>8</v>
       </c>
-      <c r="B62" s="45"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="10">
         <v>1000</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="A63" s="9">
         <v>9</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="10">
         <v>1500</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="A64" s="9">
         <v>10</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="10">
         <v>2000</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="A65" s="5">
         <v>11</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="6">
@@ -2435,7 +2435,7 @@
       <c r="A66" s="5">
         <v>12</v>
       </c>
-      <c r="B66" s="49"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="6">
         <v>500</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="A67" s="5">
         <v>13</v>
       </c>
-      <c r="B67" s="49"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="6">
         <v>1000</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="A68" s="5">
         <v>14</v>
       </c>
-      <c r="B68" s="49"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="6">
         <v>1500</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="A69" s="5">
         <v>15</v>
       </c>
-      <c r="B69" s="50"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="6">
         <v>2000</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="A70" s="9">
         <v>16</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="10">
@@ -2562,7 +2562,7 @@
       <c r="A71" s="9">
         <v>17</v>
       </c>
-      <c r="B71" s="45"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="10">
         <v>500</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="A72" s="9">
         <v>18</v>
       </c>
-      <c r="B72" s="45"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="10">
         <v>1000</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="A73" s="9">
         <v>19</v>
       </c>
-      <c r="B73" s="45"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="10">
         <v>1500</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="A74" s="9">
         <v>20</v>
       </c>
-      <c r="B74" s="46"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="10">
         <v>2000</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="A75" s="5">
         <v>21</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="6">
@@ -2689,7 +2689,7 @@
       <c r="A76" s="5">
         <v>22</v>
       </c>
-      <c r="B76" s="49"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="6">
         <v>500</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="A77" s="5">
         <v>23</v>
       </c>
-      <c r="B77" s="49"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="6">
         <v>1000</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="A78" s="5">
         <v>24</v>
       </c>
-      <c r="B78" s="49"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="6">
         <v>1500</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="A79" s="5">
         <v>25</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="6">
         <v>2000</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="A80" s="9">
         <v>26</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="10">
@@ -2816,7 +2816,7 @@
       <c r="A81" s="9">
         <v>27</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="10">
         <v>500</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="A82" s="9">
         <v>28</v>
       </c>
-      <c r="B82" s="45"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="10">
         <v>1000</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="A83" s="9">
         <v>29</v>
       </c>
-      <c r="B83" s="45"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="10">
         <v>1500</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="A84" s="9">
         <v>30</v>
       </c>
-      <c r="B84" s="46"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="10">
         <v>2000</v>
       </c>
@@ -4762,6 +4762,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D13:S13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B52:B54"/>
@@ -4778,22 +4794,6 @@
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D52:S52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D13:S13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
+++ b/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\tugas individu\Lampiran Tugas 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DC7165-C621-43EA-8939-ACD4A015A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4B570-1981-4958-9BA1-A9B6F5FC24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Prediksi LSTM-RNN" sheetId="2" r:id="rId1"/>
@@ -396,17 +396,8 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,18 +406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +428,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,34 +925,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DCF47D-A153-4797-A7E3-1D92E3AF8AA1}">
   <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="19" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="44"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="3"/>
@@ -960,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -974,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -988,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1001,7 @@
       <c r="F6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,85 +1044,85 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="48" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="48" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="48" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="48" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
@@ -1170,11 +1172,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6">
@@ -1197,11 +1199,11 @@
       <c r="R16" s="13"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="6">
         <v>500</v>
       </c>
@@ -1222,11 +1224,11 @@
       <c r="R17" s="13"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="6">
         <v>1000</v>
       </c>
@@ -1247,11 +1249,11 @@
       <c r="R18" s="13"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="6">
         <v>1500</v>
       </c>
@@ -1272,11 +1274,11 @@
       <c r="R19" s="13"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -1297,11 +1299,11 @@
       <c r="R20" s="13"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="10">
@@ -1324,11 +1326,11 @@
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="10">
         <v>500</v>
       </c>
@@ -1349,11 +1351,11 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="10">
         <v>1000</v>
       </c>
@@ -1374,11 +1376,11 @@
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10">
         <v>1500</v>
       </c>
@@ -1399,11 +1401,11 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="10">
         <v>2000</v>
       </c>
@@ -1424,11 +1426,11 @@
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>11</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="6">
@@ -1451,11 +1453,11 @@
       <c r="R26" s="13"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>12</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="6">
         <v>500</v>
       </c>
@@ -1476,11 +1478,11 @@
       <c r="R27" s="32"/>
       <c r="S27" s="30"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>13</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="6">
         <v>1000</v>
       </c>
@@ -1501,11 +1503,11 @@
       <c r="R28" s="32"/>
       <c r="S28" s="30"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>14</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="6">
         <v>1500</v>
       </c>
@@ -1526,11 +1528,11 @@
       <c r="R29" s="13"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>15</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -1551,11 +1553,11 @@
       <c r="R30" s="13"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>16</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="10">
@@ -1578,11 +1580,11 @@
       <c r="R31" s="17"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>17</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="10">
         <v>500</v>
       </c>
@@ -1603,11 +1605,11 @@
       <c r="R32" s="17"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>18</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="10">
         <v>1000</v>
       </c>
@@ -1628,11 +1630,11 @@
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="10">
         <v>1500</v>
       </c>
@@ -1653,11 +1655,11 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="10">
         <v>2000</v>
       </c>
@@ -1678,11 +1680,11 @@
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>21</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="6">
@@ -1705,11 +1707,11 @@
       <c r="R36" s="13"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>22</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="6">
         <v>500</v>
       </c>
@@ -1730,11 +1732,11 @@
       <c r="R37" s="13"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>23</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="6">
         <v>1000</v>
       </c>
@@ -1755,11 +1757,11 @@
       <c r="R38" s="13"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>24</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="6">
         <v>1500</v>
       </c>
@@ -1780,11 +1782,11 @@
       <c r="R39" s="13"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>25</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="6">
         <v>2000</v>
       </c>
@@ -1805,11 +1807,11 @@
       <c r="R40" s="13"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10">
@@ -1832,11 +1834,11 @@
       <c r="R41" s="17"/>
       <c r="S41" s="20"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="10">
         <v>500</v>
       </c>
@@ -1857,11 +1859,11 @@
       <c r="R42" s="17"/>
       <c r="S42" s="20"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="10">
         <v>1000</v>
       </c>
@@ -1882,11 +1884,11 @@
       <c r="R43" s="17"/>
       <c r="S43" s="20"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="10">
         <v>1500</v>
       </c>
@@ -1907,11 +1909,11 @@
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="10">
         <v>2000</v>
       </c>
@@ -1932,7 +1934,7 @@
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -1953,7 +1955,7 @@
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -1974,7 +1976,7 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -1995,7 +1997,7 @@
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -2016,14 +2018,14 @@
       <c r="R50" s="33"/>
       <c r="S50" s="33"/>
     </row>
-    <row r="51" spans="1:19" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -2039,68 +2041,68 @@
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="47"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="48" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="40"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="48" t="s">
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="48" t="s">
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="48" t="s">
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="50"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="43"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="11">
         <v>8</v>
       </c>
@@ -2150,11 +2152,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="6">
@@ -2177,11 +2179,11 @@
       <c r="R55" s="13"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2</v>
       </c>
-      <c r="B56" s="42"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="6">
         <v>500</v>
       </c>
@@ -2202,11 +2204,11 @@
       <c r="R56" s="13"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="42"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="6">
         <v>1000</v>
       </c>
@@ -2227,11 +2229,11 @@
       <c r="R57" s="13"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>4</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="6">
         <v>1500</v>
       </c>
@@ -2252,11 +2254,11 @@
       <c r="R58" s="13"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>5</v>
       </c>
-      <c r="B59" s="43"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="6">
         <v>2000</v>
       </c>
@@ -2277,11 +2279,11 @@
       <c r="R59" s="13"/>
       <c r="S59" s="8"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>6</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="10">
@@ -2304,11 +2306,11 @@
       <c r="R60" s="17"/>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>7</v>
       </c>
-      <c r="B61" s="35"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="10">
         <v>500</v>
       </c>
@@ -2329,11 +2331,11 @@
       <c r="R61" s="17"/>
       <c r="S61" s="18"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>8</v>
       </c>
-      <c r="B62" s="35"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="10">
         <v>1000</v>
       </c>
@@ -2354,11 +2356,11 @@
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>9</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="10">
         <v>1500</v>
       </c>
@@ -2379,11 +2381,11 @@
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>10</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="10">
         <v>2000</v>
       </c>
@@ -2404,11 +2406,11 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>11</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="6">
@@ -2431,11 +2433,11 @@
       <c r="R65" s="13"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>12</v>
       </c>
-      <c r="B66" s="42"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="6">
         <v>500</v>
       </c>
@@ -2456,11 +2458,11 @@
       <c r="R66" s="32"/>
       <c r="S66" s="30"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>13</v>
       </c>
-      <c r="B67" s="42"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="6">
         <v>1000</v>
       </c>
@@ -2481,11 +2483,11 @@
       <c r="R67" s="32"/>
       <c r="S67" s="30"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>14</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="6">
         <v>1500</v>
       </c>
@@ -2506,11 +2508,11 @@
       <c r="R68" s="13"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>15</v>
       </c>
-      <c r="B69" s="43"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="6">
         <v>2000</v>
       </c>
@@ -2531,11 +2533,11 @@
       <c r="R69" s="13"/>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>16</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="10">
@@ -2558,11 +2560,11 @@
       <c r="R70" s="17"/>
       <c r="S70" s="19"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>17</v>
       </c>
-      <c r="B71" s="35"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="10">
         <v>500</v>
       </c>
@@ -2583,11 +2585,11 @@
       <c r="R71" s="17"/>
       <c r="S71" s="19"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>18</v>
       </c>
-      <c r="B72" s="35"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="10">
         <v>1000</v>
       </c>
@@ -2608,11 +2610,11 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>19</v>
       </c>
-      <c r="B73" s="35"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="10">
         <v>1500</v>
       </c>
@@ -2633,11 +2635,11 @@
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>20</v>
       </c>
-      <c r="B74" s="36"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="10">
         <v>2000</v>
       </c>
@@ -2658,11 +2660,11 @@
       <c r="R74" s="17"/>
       <c r="S74" s="18"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>21</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="6">
@@ -2685,11 +2687,11 @@
       <c r="R75" s="13"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>22</v>
       </c>
-      <c r="B76" s="42"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="6">
         <v>500</v>
       </c>
@@ -2710,11 +2712,11 @@
       <c r="R76" s="13"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>23</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="6">
         <v>1000</v>
       </c>
@@ -2735,11 +2737,11 @@
       <c r="R77" s="13"/>
       <c r="S77" s="14"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>24</v>
       </c>
-      <c r="B78" s="42"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="6">
         <v>1500</v>
       </c>
@@ -2760,11 +2762,11 @@
       <c r="R78" s="13"/>
       <c r="S78" s="14"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>25</v>
       </c>
-      <c r="B79" s="43"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="6">
         <v>2000</v>
       </c>
@@ -2785,11 +2787,11 @@
       <c r="R79" s="13"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
         <v>26</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="10">
@@ -2812,11 +2814,11 @@
       <c r="R80" s="17"/>
       <c r="S80" s="20"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
         <v>27</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="10">
         <v>500</v>
       </c>
@@ -2837,11 +2839,11 @@
       <c r="R81" s="17"/>
       <c r="S81" s="20"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>28</v>
       </c>
-      <c r="B82" s="35"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="10">
         <v>1000</v>
       </c>
@@ -2862,11 +2864,11 @@
       <c r="R82" s="17"/>
       <c r="S82" s="20"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
         <v>29</v>
       </c>
-      <c r="B83" s="35"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="10">
         <v>1500</v>
       </c>
@@ -2887,11 +2889,11 @@
       <c r="R83" s="25"/>
       <c r="S83" s="25"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
         <v>30</v>
       </c>
-      <c r="B84" s="36"/>
+      <c r="B84" s="47"/>
       <c r="C84" s="10">
         <v>2000</v>
       </c>
@@ -2912,7 +2914,7 @@
       <c r="R84" s="25"/>
       <c r="S84" s="25"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -2933,7 +2935,7 @@
       <c r="R85" s="33"/>
       <c r="S85" s="33"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -2954,7 +2956,7 @@
       <c r="R86" s="33"/>
       <c r="S86" s="33"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -2975,7 +2977,7 @@
       <c r="R87" s="33"/>
       <c r="S87" s="33"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -2996,7 +2998,7 @@
       <c r="R88" s="33"/>
       <c r="S88" s="33"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -3017,7 +3019,7 @@
       <c r="R89" s="33"/>
       <c r="S89" s="33"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -3038,7 +3040,7 @@
       <c r="R90" s="33"/>
       <c r="S90" s="33"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -3059,7 +3061,7 @@
       <c r="R91" s="33"/>
       <c r="S91" s="33"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -3080,7 +3082,7 @@
       <c r="R92" s="33"/>
       <c r="S92" s="33"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -3101,7 +3103,7 @@
       <c r="R93" s="33"/>
       <c r="S93" s="33"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -3122,7 +3124,7 @@
       <c r="R94" s="33"/>
       <c r="S94" s="33"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -3143,7 +3145,7 @@
       <c r="R95" s="33"/>
       <c r="S95" s="33"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -3164,7 +3166,7 @@
       <c r="R96" s="33"/>
       <c r="S96" s="33"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -3185,7 +3187,7 @@
       <c r="R97" s="33"/>
       <c r="S97" s="33"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -3206,7 +3208,7 @@
       <c r="R98" s="33"/>
       <c r="S98" s="33"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -3227,7 +3229,7 @@
       <c r="R99" s="33"/>
       <c r="S99" s="33"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -3248,7 +3250,7 @@
       <c r="R100" s="33"/>
       <c r="S100" s="33"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
@@ -3269,7 +3271,7 @@
       <c r="R101" s="33"/>
       <c r="S101" s="33"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="33"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -3290,7 +3292,7 @@
       <c r="R102" s="33"/>
       <c r="S102" s="33"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="33"/>
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
@@ -3311,7 +3313,7 @@
       <c r="R103" s="33"/>
       <c r="S103" s="33"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="33"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
@@ -3332,7 +3334,7 @@
       <c r="R104" s="33"/>
       <c r="S104" s="33"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="33"/>
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
@@ -3353,7 +3355,7 @@
       <c r="R105" s="33"/>
       <c r="S105" s="33"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
@@ -3374,7 +3376,7 @@
       <c r="R106" s="33"/>
       <c r="S106" s="33"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="33"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -3395,7 +3397,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="33"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -3416,7 +3418,7 @@
       <c r="R108" s="33"/>
       <c r="S108" s="33"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="33"/>
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
@@ -3437,7 +3439,7 @@
       <c r="R109" s="33"/>
       <c r="S109" s="33"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="33"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
@@ -3458,7 +3460,7 @@
       <c r="R110" s="33"/>
       <c r="S110" s="33"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="33"/>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
@@ -3479,7 +3481,7 @@
       <c r="R111" s="33"/>
       <c r="S111" s="33"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
@@ -3500,7 +3502,7 @@
       <c r="R112" s="33"/>
       <c r="S112" s="33"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="33"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
@@ -3521,7 +3523,7 @@
       <c r="R113" s="33"/>
       <c r="S113" s="33"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="33"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
@@ -3542,7 +3544,7 @@
       <c r="R114" s="33"/>
       <c r="S114" s="33"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="33"/>
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
@@ -3563,7 +3565,7 @@
       <c r="R115" s="33"/>
       <c r="S115" s="33"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
@@ -3584,7 +3586,7 @@
       <c r="R116" s="33"/>
       <c r="S116" s="33"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="33"/>
       <c r="B117" s="33"/>
       <c r="C117" s="33"/>
@@ -3605,7 +3607,7 @@
       <c r="R117" s="33"/>
       <c r="S117" s="33"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="33"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
@@ -3626,7 +3628,7 @@
       <c r="R118" s="33"/>
       <c r="S118" s="33"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="33"/>
       <c r="B119" s="33"/>
       <c r="C119" s="33"/>
@@ -3647,7 +3649,7 @@
       <c r="R119" s="33"/>
       <c r="S119" s="33"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -3668,7 +3670,7 @@
       <c r="R120" s="33"/>
       <c r="S120" s="33"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="33"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
@@ -3689,7 +3691,7 @@
       <c r="R121" s="33"/>
       <c r="S121" s="33"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -3710,7 +3712,7 @@
       <c r="R122" s="33"/>
       <c r="S122" s="33"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
@@ -3731,7 +3733,7 @@
       <c r="R123" s="33"/>
       <c r="S123" s="33"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -3752,7 +3754,7 @@
       <c r="R124" s="33"/>
       <c r="S124" s="33"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
@@ -3773,7 +3775,7 @@
       <c r="R125" s="33"/>
       <c r="S125" s="33"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -3794,7 +3796,7 @@
       <c r="R126" s="33"/>
       <c r="S126" s="33"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33"/>
@@ -3815,7 +3817,7 @@
       <c r="R127" s="33"/>
       <c r="S127" s="33"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -3836,7 +3838,7 @@
       <c r="R128" s="33"/>
       <c r="S128" s="33"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
       <c r="C129" s="33"/>
@@ -3857,7 +3859,7 @@
       <c r="R129" s="33"/>
       <c r="S129" s="33"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -3878,7 +3880,7 @@
       <c r="R130" s="33"/>
       <c r="S130" s="33"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
       <c r="C131" s="33"/>
@@ -3899,7 +3901,7 @@
       <c r="R131" s="33"/>
       <c r="S131" s="33"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -3920,7 +3922,7 @@
       <c r="R132" s="33"/>
       <c r="S132" s="33"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
       <c r="C133" s="33"/>
@@ -3941,7 +3943,7 @@
       <c r="R133" s="33"/>
       <c r="S133" s="33"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -3962,7 +3964,7 @@
       <c r="R134" s="33"/>
       <c r="S134" s="33"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
@@ -3983,7 +3985,7 @@
       <c r="R135" s="33"/>
       <c r="S135" s="33"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -4004,7 +4006,7 @@
       <c r="R136" s="33"/>
       <c r="S136" s="33"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
@@ -4025,7 +4027,7 @@
       <c r="R137" s="33"/>
       <c r="S137" s="33"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -4046,7 +4048,7 @@
       <c r="R138" s="33"/>
       <c r="S138" s="33"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
@@ -4067,7 +4069,7 @@
       <c r="R139" s="33"/>
       <c r="S139" s="33"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
@@ -4088,7 +4090,7 @@
       <c r="R140" s="33"/>
       <c r="S140" s="33"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="33"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
@@ -4109,7 +4111,7 @@
       <c r="R141" s="33"/>
       <c r="S141" s="33"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
@@ -4130,7 +4132,7 @@
       <c r="R142" s="33"/>
       <c r="S142" s="33"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="33"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
@@ -4151,7 +4153,7 @@
       <c r="R143" s="33"/>
       <c r="S143" s="33"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
@@ -4172,7 +4174,7 @@
       <c r="R144" s="33"/>
       <c r="S144" s="33"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="33"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
@@ -4193,7 +4195,7 @@
       <c r="R145" s="33"/>
       <c r="S145" s="33"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -4214,7 +4216,7 @@
       <c r="R146" s="33"/>
       <c r="S146" s="33"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
@@ -4235,7 +4237,7 @@
       <c r="R147" s="33"/>
       <c r="S147" s="33"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
@@ -4256,7 +4258,7 @@
       <c r="R148" s="33"/>
       <c r="S148" s="33"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="33"/>
       <c r="B149" s="33"/>
       <c r="C149" s="33"/>
@@ -4277,7 +4279,7 @@
       <c r="R149" s="33"/>
       <c r="S149" s="33"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -4298,7 +4300,7 @@
       <c r="R150" s="33"/>
       <c r="S150" s="33"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="33"/>
       <c r="B151" s="33"/>
       <c r="C151" s="33"/>
@@ -4319,7 +4321,7 @@
       <c r="R151" s="33"/>
       <c r="S151" s="33"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="33"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
@@ -4340,7 +4342,7 @@
       <c r="R152" s="33"/>
       <c r="S152" s="33"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="33"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
@@ -4361,7 +4363,7 @@
       <c r="R153" s="33"/>
       <c r="S153" s="33"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
@@ -4382,7 +4384,7 @@
       <c r="R154" s="33"/>
       <c r="S154" s="33"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
@@ -4403,7 +4405,7 @@
       <c r="R155" s="33"/>
       <c r="S155" s="33"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
@@ -4424,7 +4426,7 @@
       <c r="R156" s="33"/>
       <c r="S156" s="33"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
@@ -4445,7 +4447,7 @@
       <c r="R157" s="33"/>
       <c r="S157" s="33"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -4466,7 +4468,7 @@
       <c r="R158" s="33"/>
       <c r="S158" s="33"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="33"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
@@ -4487,7 +4489,7 @@
       <c r="R159" s="33"/>
       <c r="S159" s="33"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -4508,7 +4510,7 @@
       <c r="R160" s="33"/>
       <c r="S160" s="33"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="33"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -4529,7 +4531,7 @@
       <c r="R161" s="33"/>
       <c r="S161" s="33"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
@@ -4550,7 +4552,7 @@
       <c r="R162" s="33"/>
       <c r="S162" s="33"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="33"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
@@ -4571,7 +4573,7 @@
       <c r="R163" s="33"/>
       <c r="S163" s="33"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -4592,7 +4594,7 @@
       <c r="R164" s="33"/>
       <c r="S164" s="33"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="33"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
@@ -4613,7 +4615,7 @@
       <c r="R165" s="33"/>
       <c r="S165" s="33"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -4634,7 +4636,7 @@
       <c r="R166" s="33"/>
       <c r="S166" s="33"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
@@ -4655,7 +4657,7 @@
       <c r="R167" s="33"/>
       <c r="S167" s="33"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -4676,7 +4678,7 @@
       <c r="R168" s="33"/>
       <c r="S168" s="33"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -4697,7 +4699,7 @@
       <c r="R169" s="33"/>
       <c r="S169" s="33"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
@@ -4718,7 +4720,7 @@
       <c r="R170" s="33"/>
       <c r="S170" s="33"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="33"/>
       <c r="B171" s="33"/>
       <c r="C171" s="33"/>
@@ -4739,7 +4741,7 @@
       <c r="R171" s="33"/>
       <c r="S171" s="33"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -4762,6 +4764,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="D52:S52"/>
@@ -4778,22 +4796,6 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -4809,7 +4811,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
+++ b/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\tugas individu\Lampiran Tugas 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4B570-1981-4958-9BA1-A9B6F5FC24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7834AFE-DC1B-4F84-BBFA-6AFC89CBDCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
   </bookViews>
@@ -396,8 +396,17 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +415,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,27 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DCF47D-A153-4797-A7E3-1D92E3AF8AA1}">
   <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -939,22 +939,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="51"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="3"/>
@@ -1049,80 +1049,80 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="41" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="41" t="s">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="41" t="s">
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6">
@@ -1203,7 +1203,7 @@
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="6">
         <v>500</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="6">
         <v>1000</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6">
         <v>1500</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6">
         <v>2000</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="10">
@@ -1330,7 +1330,7 @@
       <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="10">
         <v>500</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="10">
         <v>1000</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="A24" s="9">
         <v>9</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="10">
         <v>1500</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="A25" s="9">
         <v>10</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="10">
         <v>2000</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="A26" s="5">
         <v>11</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="6">
@@ -1457,7 +1457,7 @@
       <c r="A27" s="5">
         <v>12</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="6">
         <v>500</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="A28" s="5">
         <v>13</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="6">
         <v>1000</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="A29" s="5">
         <v>14</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6">
         <v>1500</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="A30" s="5">
         <v>15</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="6">
         <v>2000</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="A31" s="9">
         <v>16</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="10">
@@ -1584,7 +1584,7 @@
       <c r="A32" s="9">
         <v>17</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10">
         <v>500</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="A33" s="9">
         <v>18</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10">
         <v>1000</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="A34" s="9">
         <v>19</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="10">
         <v>1500</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="A35" s="9">
         <v>20</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="10">
         <v>2000</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="A36" s="5">
         <v>21</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="6">
@@ -1711,7 +1711,7 @@
       <c r="A37" s="5">
         <v>22</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="6">
         <v>500</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="A38" s="5">
         <v>23</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="6">
         <v>1000</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="A39" s="5">
         <v>24</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="6">
         <v>1500</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="A40" s="5">
         <v>25</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="6">
         <v>2000</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="A41" s="9">
         <v>26</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="10">
@@ -1838,7 +1838,7 @@
       <c r="A42" s="9">
         <v>27</v>
       </c>
-      <c r="B42" s="46"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10">
         <v>500</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="A43" s="9">
         <v>28</v>
       </c>
-      <c r="B43" s="46"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="10">
         <v>1000</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="A44" s="9">
         <v>29</v>
       </c>
-      <c r="B44" s="46"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="10">
         <v>1500</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="A45" s="9">
         <v>30</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="10">
         <v>2000</v>
       </c>
@@ -2019,13 +2019,13 @@
       <c r="S50" s="33"/>
     </row>
     <row r="51" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
@@ -2042,67 +2042,67 @@
       <c r="S51" s="33"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="47"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="41" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="41" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="41" t="s">
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="41" t="s">
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="43"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="50"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="11">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="A55" s="5">
         <v>1</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="6">
@@ -2183,7 +2183,7 @@
       <c r="A56" s="5">
         <v>2</v>
       </c>
-      <c r="B56" s="50"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="6">
         <v>500</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="6">
         <v>1000</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="A58" s="5">
         <v>4</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="6">
         <v>1500</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="A59" s="5">
         <v>5</v>
       </c>
-      <c r="B59" s="51"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="6">
         <v>2000</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="A60" s="9">
         <v>6</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="10">
@@ -2310,7 +2310,7 @@
       <c r="A61" s="9">
         <v>7</v>
       </c>
-      <c r="B61" s="46"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="10">
         <v>500</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="A62" s="9">
         <v>8</v>
       </c>
-      <c r="B62" s="46"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="10">
         <v>1000</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="A63" s="9">
         <v>9</v>
       </c>
-      <c r="B63" s="46"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="10">
         <v>1500</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="A64" s="9">
         <v>10</v>
       </c>
-      <c r="B64" s="47"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="10">
         <v>2000</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="A65" s="5">
         <v>11</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="6">
@@ -2437,7 +2437,7 @@
       <c r="A66" s="5">
         <v>12</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="6">
         <v>500</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="A67" s="5">
         <v>13</v>
       </c>
-      <c r="B67" s="50"/>
+      <c r="B67" s="42"/>
       <c r="C67" s="6">
         <v>1000</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="A68" s="5">
         <v>14</v>
       </c>
-      <c r="B68" s="50"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="6">
         <v>1500</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="A69" s="5">
         <v>15</v>
       </c>
-      <c r="B69" s="51"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="6">
         <v>2000</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="A70" s="9">
         <v>16</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="10">
@@ -2564,7 +2564,7 @@
       <c r="A71" s="9">
         <v>17</v>
       </c>
-      <c r="B71" s="46"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="10">
         <v>500</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="A72" s="9">
         <v>18</v>
       </c>
-      <c r="B72" s="46"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="10">
         <v>1000</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="A73" s="9">
         <v>19</v>
       </c>
-      <c r="B73" s="46"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="10">
         <v>1500</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="A74" s="9">
         <v>20</v>
       </c>
-      <c r="B74" s="47"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="10">
         <v>2000</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="A75" s="5">
         <v>21</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="6">
@@ -2691,7 +2691,7 @@
       <c r="A76" s="5">
         <v>22</v>
       </c>
-      <c r="B76" s="50"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="6">
         <v>500</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="A77" s="5">
         <v>23</v>
       </c>
-      <c r="B77" s="50"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="6">
         <v>1000</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="A78" s="5">
         <v>24</v>
       </c>
-      <c r="B78" s="50"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="6">
         <v>1500</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="A79" s="5">
         <v>25</v>
       </c>
-      <c r="B79" s="51"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="6">
         <v>2000</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="A80" s="9">
         <v>26</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="10">
@@ -2818,7 +2818,7 @@
       <c r="A81" s="9">
         <v>27</v>
       </c>
-      <c r="B81" s="46"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="10">
         <v>500</v>
       </c>
@@ -2843,7 +2843,7 @@
       <c r="A82" s="9">
         <v>28</v>
       </c>
-      <c r="B82" s="46"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="10">
         <v>1000</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="A83" s="9">
         <v>29</v>
       </c>
-      <c r="B83" s="46"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="10">
         <v>1500</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="A84" s="9">
         <v>30</v>
       </c>
-      <c r="B84" s="47"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="10">
         <v>2000</v>
       </c>
@@ -4764,6 +4764,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D52:S52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D13:S13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B52:B54"/>
@@ -4780,22 +4796,6 @@
     <mergeCell ref="B70:B74"/>
     <mergeCell ref="B75:B79"/>
     <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D52:S52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D13:S13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
+++ b/tugas individu/Lampiran Tugas 11/template jawaban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materi Kuliah - Machine Learning v1\tugas individu\Lampiran Tugas 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812051BE-37E4-411A-ADC6-85F8711999D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044AACE5-B0E7-4504-9637-EB89501E9C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="481" xr2:uid="{FD2A85CA-AF0E-4C71-84B9-3F022994DA64}"/>
   </bookViews>
   <sheets>
     <sheet name="Hasil Prediksi LSTM-RNN" sheetId="2" r:id="rId1"/>
@@ -315,6 +315,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,38 +363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DCF47D-A153-4797-A7E3-1D92E3AF8AA1}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:H31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,97 +853,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="3" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="40"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="31" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="31" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="31" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="31" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15">
@@ -1040,7 +1040,7 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="15">
         <v>0.1</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="15">
         <v>0.15</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="15">
         <v>0.2</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="15">
         <v>0.25</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="16">
@@ -1187,7 +1187,7 @@
       <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="16">
         <v>0.1</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="16">
         <v>0.15</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="A15" s="5">
         <v>9</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="16">
         <v>0.2</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="16">
         <v>0.25</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="15">
@@ -1334,7 +1334,7 @@
       <c r="A18" s="2">
         <v>12</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="15">
         <v>0.1</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="15">
         <v>0.15</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="15">
         <v>0.2</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="A21" s="2">
         <v>15</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="15">
         <v>0.25</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="A22" s="5">
         <v>16</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16">
@@ -1481,7 +1481,7 @@
       <c r="A23" s="5">
         <v>17</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="16">
         <v>0.1</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="A24" s="5">
         <v>18</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="16">
         <v>0.15</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="A25" s="5">
         <v>19</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="16">
         <v>0.2</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="A26" s="5">
         <v>20</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="16">
         <v>0.25</v>
       </c>
@@ -1594,84 +1594,84 @@
       <c r="W26" s="8"/>
     </row>
     <row r="29" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="40"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="31" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="31" t="s">
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="31" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="31" t="s">
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="6">
         <v>2</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="15">
@@ -1768,7 +1768,7 @@
       <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="15">
         <v>0.1</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="A35" s="2">
         <v>3</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="15">
         <v>0.15</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="A36" s="2">
         <v>4</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="15">
         <v>0.2</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="15">
         <v>0.25</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="A38" s="5">
         <v>6</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="16">
@@ -1915,7 +1915,7 @@
       <c r="A39" s="5">
         <v>7</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="16">
         <v>0.1</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="A40" s="5">
         <v>8</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="16">
         <v>0.15</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="A41" s="5">
         <v>9</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="16">
         <v>0.2</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="A42" s="5">
         <v>10</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="16">
         <v>0.25</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="A43" s="2">
         <v>11</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="15">
@@ -2062,7 +2062,7 @@
       <c r="A44" s="2">
         <v>12</v>
       </c>
-      <c r="B44" s="26"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="15">
         <v>0.1</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="A45" s="2">
         <v>13</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="15">
         <v>0.15</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="A46" s="2">
         <v>14</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="15">
         <v>0.2</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="A47" s="2">
         <v>15</v>
       </c>
-      <c r="B47" s="27"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="15">
         <v>0.25</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="A48" s="5">
         <v>16</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="16">
@@ -2209,7 +2209,7 @@
       <c r="A49" s="5">
         <v>17</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="16">
         <v>0.1</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="A50" s="5">
         <v>18</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="16">
         <v>0.15</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="A51" s="5">
         <v>19</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="16">
         <v>0.2</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="A52" s="5">
         <v>20</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="16">
         <v>0.25</v>
       </c>
@@ -2323,17 +2323,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:W4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B43:B47"/>
@@ -2350,6 +2339,17 @@
     <mergeCell ref="S31:W31"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:W4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="S5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2361,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA59A3F-7E6C-48F2-A8ED-F5157990D4DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
